--- a/biology/Neurosciences/Nerf_ulnaire/Nerf_ulnaire.xlsx
+++ b/biology/Neurosciences/Nerf_ulnaire/Nerf_ulnaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf ulnaire (ou nerf cubital en ancienne nomenclature) est un nerf moteur et sensitif du membre supérieur chez l'Homme.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf ulnaire est une branche terminale du plexus brachial. Ses fibres proviennent de C8 et T1. Il nait du tronc secondaire antéro-interne du plexus derrière le muscle petit pectoral.
 </t>
@@ -542,11 +556,48 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf ulnaire chemine le long de la face interne de l'artère axillaire. Il se dirige en bas et en dehors puis traverse le septum intermusculaire médial du bras pour se poursuivre dans la loge brachiale postérieure. Il passe dans la gouttière postérieure de l'épicondyle médial de l'humérus puis rejoint le poignet dans la partie médiale de la loge antébrachiale antérieure. Il passe dans le canal ulnaire avant de se terminer en deux branches terminales : une profonde motrice et une superficielle sensitive.
-Creux axillaire
-Dans le creux axillaire, le nerf ulnaire est en rapport avec
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nerf_ulnaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_ulnaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Creux axillaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dans le creux axillaire, le nerf ulnaire est en rapport avec
 en avant les muscles petit et grand pectoral,
 en arrière le muscle subscapulaire,
 en dedans le muscle grand dentelé,
@@ -554,51 +605,7 @@
 Il fait partie du paquet vasculo-nerveux du creux axillaire avec
 en dedans la veine axillaire et le nerf cutané médial de l'avant-bras,
 en dehors l'artère axillaire, le nerf médian et le nerf musculo-cutané,
-en arrière les nerfs du muscle grand rond et du muscle grand dorsal, l'artère et la veine subscapulaire.
-Bras
-Le nerf ulnaire chemine en haut du bras dans le canal brachial en arrière du muscle biceps brachial, devant le septum intermusculaire médial du bras, en dedans du muscle coracobrachial et en dehors du fascia brachial.
-Il fait partie du paquet vasculo-nerveux composé en dehors de l'artère brachiale et du nerf médian et en dedans de la veine basilique, de la veine brachiale interne et du nerf cutané médial de l'avant-bras.
-Dans la moitié inférieure du bras, il passe à travers le septum intermusculaire médial du bras pour passer la loge brachiale postérieure où il accompagne l'artère collatérale ulnaire supérieure et ses veines satellites.
-Coude
-Le nerf ulnaire rejoint l'avant-bras en passant par la gouttière épitrochléo-olécranienne formée par la face postérieure de l'épicondyle médial de l'humérus, la face interne de l'olécrane et le fascia antébrachial. Il pénètre dans l'avant-bras en passant sous le chef huméral du muscle fléchisseur ulnaire du carpe.
-Avant-bras
-Le nerf ulnaire accompagne le muscle fléchisseur ulnaire du carpe la loge antébrachiale antérieure. En passant entre le tendon de ce dernier muscle et le tendon correspondant à l'annulaire du muscle fléchisseur superficiel des doigts , il devient superficiel. L'artère et les veines ulnaires suivent le nerf dans cette partie de son trajet.
-Le nerf ulnaire se termine 5 cm au-dessus du poignet.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nerf_ulnaire</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nerf_ulnaire</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Branches</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nerf ulnaire fournit au niveau du un nerf articulaire pour l'articulation du coude ainsi que des rameaux musculaires pour le muscle fléchisseur ulnaire du carpe et les quatrième et cinquième chef du muscle fléchisseur profond des doigts.
-Le nerf ulnaire se termine environ 5 cm au-dessus du poignet par deux branches terminales : le rameau palmaire et le rameau dorsal du nerf ulnaire.
-Remarque
-Certains auteurs considèrent les rameaux superficiel et profond du nerf ulnaire comme les branches terminales du nerf ulnaire[1] et que le nerf ulnaire lui-même se poursuit jusqu’en dessous du rétinaculum des fléchisseurs
-</t>
+en arrière les nerfs du muscle grand rond et du muscle grand dorsal, l'artère et la veine subscapulaire.</t>
         </is>
       </c>
     </row>
@@ -623,13 +630,203 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bras</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf ulnaire chemine en haut du bras dans le canal brachial en arrière du muscle biceps brachial, devant le septum intermusculaire médial du bras, en dedans du muscle coracobrachial et en dehors du fascia brachial.
+Il fait partie du paquet vasculo-nerveux composé en dehors de l'artère brachiale et du nerf médian et en dedans de la veine basilique, de la veine brachiale interne et du nerf cutané médial de l'avant-bras.
+Dans la moitié inférieure du bras, il passe à travers le septum intermusculaire médial du bras pour passer la loge brachiale postérieure où il accompagne l'artère collatérale ulnaire supérieure et ses veines satellites.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nerf_ulnaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_ulnaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Coude</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf ulnaire rejoint l'avant-bras en passant par la gouttière épitrochléo-olécranienne formée par la face postérieure de l'épicondyle médial de l'humérus, la face interne de l'olécrane et le fascia antébrachial. Il pénètre dans l'avant-bras en passant sous le chef huméral du muscle fléchisseur ulnaire du carpe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nerf_ulnaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_ulnaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Avant-bras</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf ulnaire accompagne le muscle fléchisseur ulnaire du carpe la loge antébrachiale antérieure. En passant entre le tendon de ce dernier muscle et le tendon correspondant à l'annulaire du muscle fléchisseur superficiel des doigts , il devient superficiel. L'artère et les veines ulnaires suivent le nerf dans cette partie de son trajet.
+Le nerf ulnaire se termine 5 cm au-dessus du poignet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nerf_ulnaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_ulnaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf ulnaire fournit au niveau du un nerf articulaire pour l'articulation du coude ainsi que des rameaux musculaires pour le muscle fléchisseur ulnaire du carpe et les quatrième et cinquième chef du muscle fléchisseur profond des doigts.
+Le nerf ulnaire se termine environ 5 cm au-dessus du poignet par deux branches terminales : le rameau palmaire et le rameau dorsal du nerf ulnaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nerf_ulnaire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_ulnaire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Remarque</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains auteurs considèrent les rameaux superficiel et profond du nerf ulnaire comme les branches terminales du nerf ulnaire et que le nerf ulnaire lui-même se poursuit jusqu’en dessous du rétinaculum des fléchisseurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nerf_ulnaire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_ulnaire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Innervation motrice
-Le nerf ulnaire fournit l'innervation motrice :
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Innervation motrice</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le nerf ulnaire fournit l'innervation motrice :
 du muscle fléchisseur ulnaire du carpe,
 des quatrième et cinquième chef du muscle fléchisseur profond des doigts,
 et par l'intermédiaire de son rameau palmaire et de sa branche profonde :
@@ -640,9 +837,43 @@
 du muscle court fléchisseur du petit doigt,
 du chef profond du muscle court fléchisseur du pouce,
 du muscle adducteur du pouce,
-du muscle court palmaire.
-Innervation sensitive
-Par l'intermédiaire du rameau dorsal et du rameau superficiel du rameau palmaire, il véhicule la sensibilité :
+du muscle court palmaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nerf_ulnaire</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_ulnaire</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Zone d'innervation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Innervation sensitive</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Par l'intermédiaire du rameau dorsal et du rameau superficiel du rameau palmaire, il véhicule la sensibilité :
 de la face dorsale du cinquième doigt,
 de la face dorsale médiale du quatrième doigt et la partie proximale de sa face dorsale latérale,
 de la partie proximale de sa face dorsale médiale du troisième doigt,
@@ -653,31 +884,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Nerf_ulnaire</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nerf_ulnaire</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nerf_ulnaire</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_ulnaire</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Une lésion du nerf ulnaire entraîne les signes suivants :
 la main prend un aspect de griffe cubitale par hyper-extension des phalanges proximales et de la flexion des phalanges médianes des quatrième et cinquième doigts ;
